--- a/Datos/Database by set/Set with text box/Xlsx sets/Judge Gift Cards 2009 (G09).xlsx
+++ b/Datos/Database by set/Set with text box/Xlsx sets/Judge Gift Cards 2009 (G09).xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A35"/>
+  <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,238 +444,70 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Bloodstained Mire</t>
+          <t>('Bloodstained Mire', ['Land', '{T}, Pay 1 life, Sacrifice Bloodstained Mire: Search your library for a Swamp or Mountain card, put it onto the battlefield, then shuffle your library.'])</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Land</t>
+          <t>('Burning Wish', ['{1}{R}', 'Sorcery', 'You may reveal a sorcery card you own from outside the game and put it into your hand. Exile Burning Wish.'])</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>{T}, Pay 1 life, Sacrifice Bloodstained Mire: Search your library for a Swamp or Mountain card, put it onto the battlefield, then shuffle your library.</t>
+          <t>('Dark Ritual', ['{B}', 'Instant', 'Add {B}{B}{B}.'])</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Burning Wish</t>
+          <t>('Flooded Strand', ['Land', '{T}, Pay 1 life, Sacrifice Flooded Strand: Search your library for a Plains or Island card, put it onto the battlefield, then shuffle your library.'])</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>{1}{R}</t>
+          <t>('Maze of Ith', ['Land', '{T}: Untap target attacking creature. Prevent all combat damage that would be dealt to and dealt by that creature this turn.'])</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sorcery</t>
+          <t>('Polluted Delta', ['Land', '{T}, Pay 1 life, Sacrifice Polluted Delta: Search your library for an Island or Swamp card, put it onto the battlefield, then shuffle your library.'])</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>You may reveal a sorcery card you own from outside the game and put it into your hand. Exile Burning Wish.</t>
+          <t>('Stifle', ['{U}', 'Instant', 'Counter target activated or triggered ability. (Mana abilities can’t be targeted.)'])</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Dark Ritual</t>
+          <t>('Survival of the Fittest', ['{1}{G}', 'Enchantment', '{G}, Discard a creature card: Search your library for a creature card, reveal that card, and put it into your hand. Then shuffle your library.'])</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>{B}</t>
+          <t>('Windswept Heath', ['Land', '{T}, Pay 1 life, Sacrifice Windswept Heath: Search your library for a Forest or Plains card, put it onto the battlefield, then shuffle your library.'])</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Instant</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Add {B}{B}{B}.</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Flooded Strand</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Land</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>{T}, Pay 1 life, Sacrifice Flooded Strand: Search your library for a Plains or Island card, put it onto the battlefield, then shuffle your library.</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Maze of Ith</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Land</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>{T}: Untap target attacking creature. Prevent all combat damage that would be dealt to and dealt by that creature this turn.</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Polluted Delta</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Land</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>{T}, Pay 1 life, Sacrifice Polluted Delta: Search your library for an Island or Swamp card, put it onto the battlefield, then shuffle your library.</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Stifle</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>{U}</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Instant</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Counter target activated or triggered ability. (Mana abilities can’t be targeted.)</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Survival of the Fittest</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>{1}{G}</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Enchantment</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>{G}, Discard a creature card: Search your library for a creature card, reveal that card, and put it into your hand. Then shuffle your library.</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Windswept Heath</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Land</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>{T}, Pay 1 life, Sacrifice Windswept Heath: Search your library for a Forest or Plains card, put it onto the battlefield, then shuffle your library.</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Wooded Foothills</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Land</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>{T}, Pay 1 life, Sacrifice Wooded Foothills: Search your library for a Mountain or Forest card, put it onto the battlefield, then shuffle your library.</t>
+          <t>('Wooded Foothills', ['Land', '{T}, Pay 1 life, Sacrifice Wooded Foothills: Search your library for a Mountain or Forest card, put it onto the battlefield, then shuffle your library.'])</t>
         </is>
       </c>
     </row>
